--- a/Banco Central/5/8/1/Spot 2021 - Diaria.xlsx
+++ b/Banco Central/5/8/1/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Serie</t>
   </si>
@@ -458,6 +458,21 @@
   </si>
   <si>
     <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
   </si>
 </sst>
 </file>
@@ -815,7 +830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3269,6 +3284,91 @@
         <v>3.24</v>
       </c>
     </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145">
+        <v>3.75</v>
+      </c>
+      <c r="C145">
+        <v>3.39</v>
+      </c>
+      <c r="D145">
+        <v>3.26</v>
+      </c>
+      <c r="E145">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146">
+        <v>3.79</v>
+      </c>
+      <c r="C146">
+        <v>3.37</v>
+      </c>
+      <c r="D146">
+        <v>3.23</v>
+      </c>
+      <c r="E146">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>3.67</v>
+      </c>
+      <c r="C147">
+        <v>3.39</v>
+      </c>
+      <c r="D147">
+        <v>3.23</v>
+      </c>
+      <c r="E147">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148">
+        <v>3.64</v>
+      </c>
+      <c r="C148">
+        <v>3.34</v>
+      </c>
+      <c r="D148">
+        <v>3.21</v>
+      </c>
+      <c r="E148">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149">
+        <v>3.52</v>
+      </c>
+      <c r="C149">
+        <v>3.34</v>
+      </c>
+      <c r="D149">
+        <v>3.22</v>
+      </c>
+      <c r="E149">
+        <v>3.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
